--- a/relacion ediciones ck vs gatherer.xlsx
+++ b/relacion ediciones ck vs gatherer.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$86</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="335">
   <si>
     <t>name</t>
   </si>
@@ -1027,7 +1030,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1080,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1110,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1158,6 +1167,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,19 +1480,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
     <col min="6" max="6" width="6.5546875" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -1506,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>157</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>212</v>
       </c>
@@ -1564,7 +1586,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>160</v>
       </c>
@@ -1593,7 +1615,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>164</v>
       </c>
@@ -1644,10 +1666,10 @@
       <c r="G6" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="17">
         <v>3055</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="18" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1680,7 +1702,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>216</v>
       </c>
@@ -1709,7 +1731,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>208</v>
       </c>
@@ -1738,7 +1760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>173</v>
       </c>
@@ -1789,14 +1811,14 @@
       <c r="G11" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="19">
         <v>3059</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>180</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>221</v>
       </c>
@@ -1941,7 +1963,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
@@ -1964,7 +1986,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>196</v>
       </c>
@@ -1987,7 +2009,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>200</v>
       </c>
@@ -2010,7 +2032,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>204</v>
       </c>
@@ -2056,7 +2078,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>226</v>
       </c>
@@ -2079,7 +2101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>228</v>
       </c>
@@ -2148,7 +2170,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>238</v>
       </c>
@@ -2194,7 +2216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>245</v>
       </c>
@@ -2217,7 +2239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>248</v>
       </c>
@@ -2240,7 +2262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>252</v>
       </c>
@@ -2263,7 +2285,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>13</v>
       </c>
@@ -2286,7 +2308,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>148</v>
       </c>
@@ -2516,7 +2538,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>48</v>
       </c>
@@ -2539,7 +2561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>79</v>
       </c>
@@ -2608,7 +2630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>219</v>
       </c>
@@ -2677,7 +2699,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -2700,7 +2722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
@@ -2723,7 +2745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -2746,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
@@ -2769,7 +2791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -2907,7 +2929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>152</v>
       </c>
@@ -2976,7 +2998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>154</v>
       </c>
@@ -3068,7 +3090,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>111</v>
       </c>
@@ -3091,7 +3113,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>115</v>
       </c>
@@ -3137,7 +3159,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -3206,7 +3228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>132</v>
       </c>
@@ -3229,7 +3251,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>135</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>139</v>
       </c>
@@ -3321,7 +3343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>255</v>
       </c>
@@ -3344,7 +3366,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>259</v>
       </c>
@@ -3390,7 +3412,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>268</v>
       </c>
@@ -3413,7 +3435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>270</v>
       </c>
@@ -3436,7 +3458,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>285</v>
       </c>
@@ -3459,7 +3481,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>273</v>
       </c>
@@ -3482,7 +3504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>276</v>
       </c>
@@ -3505,7 +3527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>281</v>
       </c>
@@ -3561,6 +3583,49 @@
       <c r="G87" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J86">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2345"/>
+        <filter val="2350"/>
+        <filter val="2355"/>
+        <filter val="2360"/>
+        <filter val="2365"/>
+        <filter val="2370"/>
+        <filter val="2375"/>
+        <filter val="2380"/>
+        <filter val="2395"/>
+        <filter val="2420"/>
+        <filter val="2425"/>
+        <filter val="2430"/>
+        <filter val="2470"/>
+        <filter val="2620"/>
+        <filter val="2625"/>
+        <filter val="2640"/>
+        <filter val="2700"/>
+        <filter val="2720"/>
+        <filter val="2789"/>
+        <filter val="2847"/>
+        <filter val="2854"/>
+        <filter val="2862"/>
+        <filter val="2863"/>
+        <filter val="2875"/>
+        <filter val="2876"/>
+        <filter val="2895"/>
+        <filter val="2902"/>
+        <filter val="2907"/>
+        <filter val="2908"/>
+        <filter val="2910"/>
+        <filter val="2913"/>
+        <filter val="2947"/>
+        <filter val="2960"/>
+        <filter val="2977"/>
+        <filter val="2984"/>
+        <filter val="3032"/>
+        <filter val="3044"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:G87">
     <sortCondition ref="A1"/>
   </sortState>
@@ -4010,12 +4075,315 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="8">
+        <v>2420</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="8">
+        <v>2425</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>2360</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="9">
+        <v>2902</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="9">
+        <v>2977</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="9">
+        <v>2470</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>2370</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
+        <v>2355</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>2350</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
+        <v>2913</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>2395</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>2430</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>2789</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>2847</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>2863</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
+        <v>2876</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="9">
+        <v>2895</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>2910</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="9">
+        <v>2862</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="8">
+        <v>2908</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>3044</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="9">
+        <v>2984</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>2907</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>2947</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>3032</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>2375</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>2875</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>2625</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>2620</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>2854</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>2640</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>2345</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="9">
+        <v>2365</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="14">
+        <v>2380</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="8">
+        <v>2700</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="8">
+        <v>2720</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="9">
+        <v>2960</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>